--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.021920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.021920.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4855,12 +4855,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5023,12 +5023,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5569,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6829,12 +6829,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8891,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8975,12 +8975,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9563,12 +9563,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
